--- a/src/main/webapp/WEB-INF/templates/financeStatistics/companyDetailExportModel.xlsx
+++ b/src/main/webapp/WEB-INF/templates/financeStatistics/companyDetailExportModel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21E2BA-CCF1-485D-A714-BB7C7326314B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2288A-E33C-4229-8005-1799B2B05B44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上市日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>融资金额(亿元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,28 +475,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
